--- a/doc/TAC.xlsx
+++ b/doc/TAC.xlsx
@@ -105,18 +105,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x不是0则goto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +138,14 @@
   </si>
   <si>
     <t>指针数组相关待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x是0则goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,55 +584,55 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>8</v>

--- a/doc/TAC.xlsx
+++ b/doc/TAC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>ifz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return，一个函数内都goto到一个ret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +493,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,6 +546,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -632,13 +651,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
       <c r="B11">
         <v>9</v>
       </c>

--- a/doc/TAC.xlsx
+++ b/doc/TAC.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="约定" sheetId="1" r:id="rId1"/>
+    <sheet name="内存布局" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,11 +126,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带n个参数的调用</t>
+    <t>指针数组相关待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x是0则goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return，一个函数内都goto到一个ret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,31 +158,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指针数组相关待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x是0则goto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return，一个函数内都goto到一个ret</t>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ptr=x，把x的值给指针指向的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptr = &amp;(rec_ptr-&gt;field)，结构体专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z=func(...)把已经传入的所有参数用来调用指定函数，返回值存到目标量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解引用并作为右值的场合，符号不是‘*'而是'get'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以函数执行时为参考时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存调用者的fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fp+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fp-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fp+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9个以上参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0-a7为前8个参数（其中a0一般是返回值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他要保存的寄存器值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数内部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝的函数参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,19 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +633,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -536,7 +653,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -547,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -570,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -586,8 +703,11 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -601,15 +721,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -618,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -632,9 +752,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -643,55 +763,82 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
       <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -725,4 +872,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>